--- a/RCS03N.xlsx
+++ b/RCS03N.xlsx
@@ -11,24 +11,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="50">
   <si>
     <t/>
   </si>
   <si>
+    <t>10008651</t>
+  </si>
+  <si>
+    <t>S/G CHK.NGT ORGNL400</t>
+  </si>
+  <si>
+    <t>RCS03N</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>RT,(E-1B)</t>
+  </si>
+  <si>
     <t>20051682</t>
   </si>
   <si>
     <t>S/GOOD PAHA&amp;DADA 1KG</t>
-  </si>
-  <si>
-    <t>RCS03N</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>RT,(E-1B)</t>
   </si>
   <si>
     <t>20078645</t>
@@ -547,7 +553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -628,7 +634,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -639,16 +645,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -668,47 +674,47 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>4</v>
@@ -728,7 +734,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>4</v>
@@ -748,7 +754,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>4</v>
@@ -768,7 +774,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>4</v>
@@ -779,16 +785,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>4</v>
@@ -808,13 +814,13 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -828,27 +834,27 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>4</v>
@@ -868,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>4</v>
@@ -888,7 +894,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>4</v>
@@ -899,16 +905,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>4</v>
@@ -928,7 +934,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>4</v>
@@ -948,12 +954,32 @@
         <v>3</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>5</v>
       </c>
     </row>
